--- a/pdb_ekspor.xlsx
+++ b/pdb_ekspor.xlsx
@@ -1,5 +1,606 @@
 
-<file path=theme/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vianbeladona/Desktop/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBAC2FBE-DB73-5B45-AB09-AC20C2B5F47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="14860"/>
+  </bookViews>
+  <sheets>
+    <sheet name="pdb_ekspor" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="0"/>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Periode</t>
+  </si>
+  <si>
+    <t>Nilai</t>
+  </si>
+  <si>
+    <t>548558.55</t>
+  </si>
+  <si>
+    <t>474512.65</t>
+  </si>
+  <si>
+    <t>524767.88</t>
+  </si>
+  <si>
+    <t>542434.28</t>
+  </si>
+  <si>
+    <t>586652.43</t>
+  </si>
+  <si>
+    <t>623998.53</t>
+  </si>
+  <si>
+    <t>677795.80</t>
+  </si>
+  <si>
+    <t>704235.57</t>
+  </si>
+  <si>
+    <t>684580.34</t>
+  </si>
+  <si>
+    <t>747153.39</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="10">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  </cellXfs>
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -286,9 +887,111 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
-<file path=theme/theme/themeManager.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeManager xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>43891</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>44256</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>44348</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>44440</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>44713</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>